--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_T55_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_T55_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.6713308423207838</v>
+        <v>0.08873584232078371</v>
       </c>
       <c r="C2">
-        <v>0.4081742755916882</v>
+        <v>0.5038494195916882</v>
       </c>
       <c r="D2">
-        <v>0.18001876026763</v>
+        <v>-0.08040038373236996</v>
       </c>
       <c r="E2">
-        <v>-0.04386758844314925</v>
+        <v>0.7915874115568508</v>
       </c>
       <c r="F2">
-        <v>0.8714298707313746</v>
+        <v>0.7713569177313746</v>
       </c>
       <c r="G2">
-        <v>0.7287129257210216</v>
+        <v>0.3749198787210216</v>
       </c>
       <c r="H2">
-        <v>0.3687093173527261</v>
+        <v>0.5168873173527261</v>
       </c>
       <c r="I2">
-        <v>0.5318167280777406</v>
+        <v>0.6892627280777406</v>
       </c>
       <c r="J2">
-        <v>0.6850938218533179</v>
+        <v>0.1844308218533179</v>
       </c>
       <c r="K2">
-        <v>0.1817452544735015</v>
+        <v>0.4621062544735015</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.4306022552246968</v>
+        <v>0.5262773992246967</v>
       </c>
       <c r="C3">
-        <v>0.1826222998300787</v>
+        <v>-0.07779684416992128</v>
       </c>
       <c r="D3">
-        <v>-0.06593527409716449</v>
+        <v>0.7695197259028355</v>
       </c>
       <c r="E3">
-        <v>0.8654478904270196</v>
+        <v>0.7653749374270196</v>
       </c>
       <c r="F3">
-        <v>0.7233696755386105</v>
+        <v>0.3695766285386105</v>
       </c>
       <c r="G3">
-        <v>0.3583407839823598</v>
+        <v>0.5065187839823598</v>
       </c>
       <c r="H3">
-        <v>0.5233394059541168</v>
+        <v>0.6807854059541167</v>
       </c>
       <c r="I3">
-        <v>0.6773215135465072</v>
+        <v>0.1766585135465071</v>
       </c>
       <c r="J3">
-        <v>0.1731212809405329</v>
+        <v>0.4534822809405329</v>
       </c>
       <c r="K3">
-        <v>0.4559179537672726</v>
+        <v>0.2839429537672726</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0.2040468712872988</v>
+        <v>-0.05637227271270118</v>
       </c>
       <c r="C4">
-        <v>0.05424257470204791</v>
+        <v>0.8896975747020479</v>
       </c>
       <c r="D4">
-        <v>0.7762535460132365</v>
+        <v>0.6761805930132365</v>
       </c>
       <c r="E4">
-        <v>0.6936426716900327</v>
+        <v>0.3398496246900327</v>
       </c>
       <c r="F4">
-        <v>0.3669669040122699</v>
+        <v>0.51514490401227</v>
       </c>
       <c r="G4">
-        <v>0.4973992325286816</v>
+        <v>0.6548452325286815</v>
       </c>
       <c r="H4">
-        <v>0.6545429505182796</v>
+        <v>0.1538799505182796</v>
       </c>
       <c r="I4">
-        <v>0.1595032457919151</v>
+        <v>0.4398642457919151</v>
       </c>
       <c r="J4">
-        <v>0.4373971565820968</v>
+        <v>0.2654221565820968</v>
       </c>
       <c r="K4">
-        <v>0.2648072220727796</v>
+        <v>0.5706702220727796</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.01192194238165845</v>
+        <v>0.8473769423816584</v>
       </c>
       <c r="C5">
-        <v>0.7470490721575034</v>
+        <v>0.6469761191575033</v>
       </c>
       <c r="D5">
-        <v>0.6906220718851115</v>
+        <v>0.3368290248851115</v>
       </c>
       <c r="E5">
-        <v>0.3481056204007895</v>
+        <v>0.4962836204007895</v>
       </c>
       <c r="F5">
-        <v>0.4770681014634773</v>
+        <v>0.6345141014634773</v>
       </c>
       <c r="G5">
-        <v>0.6400127950840317</v>
+        <v>0.1393497950840318</v>
       </c>
       <c r="H5">
-        <v>0.1428622002996471</v>
+        <v>0.4232232002996471</v>
       </c>
       <c r="I5">
-        <v>0.4198133111533466</v>
+        <v>0.2478383111533466</v>
       </c>
       <c r="J5">
-        <v>0.2483333385427368</v>
+        <v>0.5541963385427369</v>
       </c>
       <c r="K5">
-        <v>0.5550469433309027</v>
+        <v>-0.05728305666909728</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.087246812775413</v>
+        <v>0.9871738597754134</v>
       </c>
       <c r="C6">
-        <v>0.7659931336690486</v>
+        <v>0.4122000866690486</v>
       </c>
       <c r="D6">
-        <v>0.1570123340877904</v>
+        <v>0.3051903340877904</v>
       </c>
       <c r="E6">
-        <v>0.5017620140502106</v>
+        <v>0.6592080140502106</v>
       </c>
       <c r="F6">
-        <v>0.6493921986403277</v>
+        <v>0.1487291986403278</v>
       </c>
       <c r="G6">
-        <v>0.08805140168825606</v>
+        <v>0.3684124016882561</v>
       </c>
       <c r="H6">
-        <v>0.4009192202646768</v>
+        <v>0.2289442202646768</v>
       </c>
       <c r="I6">
-        <v>0.2334693377276911</v>
+        <v>0.5393323377276911</v>
       </c>
       <c r="J6">
-        <v>0.526335232701532</v>
+        <v>-0.085994767298468</v>
       </c>
       <c r="K6">
-        <v>-0.08123716056912761</v>
+        <v>0.6071338394308724</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,34 +664,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>1.216688005659299</v>
+        <v>0.8628949586592991</v>
       </c>
       <c r="C7">
-        <v>0.2041230363001488</v>
+        <v>0.3523010363001488</v>
       </c>
       <c r="D7">
-        <v>0.2614787832594023</v>
+        <v>0.4189247832594023</v>
       </c>
       <c r="E7">
-        <v>0.6853372797061905</v>
+        <v>0.1846742797061906</v>
       </c>
       <c r="F7">
-        <v>0.08600064424866319</v>
+        <v>0.3663616442486632</v>
       </c>
       <c r="G7">
-        <v>0.3243509808286466</v>
+        <v>0.1523759808286466</v>
       </c>
       <c r="H7">
-        <v>0.2060699433524077</v>
+        <v>0.5119329433524077</v>
       </c>
       <c r="I7">
-        <v>0.5000461825038066</v>
+        <v>-0.1122838174961934</v>
       </c>
       <c r="J7">
-        <v>-0.1246344512824602</v>
-      </c>
-      <c r="K7">
-        <v>0.5737435035592049</v>
+        <v>0.5637365487175399</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -699,31 +696,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.5164486232236872</v>
+        <v>0.6646266232236873</v>
       </c>
       <c r="C8">
-        <v>0.3947675229949266</v>
+        <v>0.5522135229949265</v>
       </c>
       <c r="D8">
-        <v>0.506258857889999</v>
+        <v>0.005595857889999001</v>
       </c>
       <c r="E8">
-        <v>0.1141948830192304</v>
+        <v>0.3945558830192304</v>
       </c>
       <c r="F8">
-        <v>0.3603762920210401</v>
+        <v>0.1884012920210401</v>
       </c>
       <c r="G8">
-        <v>0.1685283731481941</v>
+        <v>0.4743913731481941</v>
       </c>
       <c r="H8">
-        <v>0.4945038434164454</v>
+        <v>-0.1178261565835546</v>
       </c>
       <c r="I8">
-        <v>-0.1204591223437116</v>
-      </c>
-      <c r="J8">
-        <v>0.562558789819434</v>
+        <v>0.5679118776562884</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -731,28 +725,25 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.6303580141027678</v>
+        <v>0.7878040141027678</v>
       </c>
       <c r="C9">
-        <v>0.5909375987643086</v>
+        <v>0.09027459876430857</v>
       </c>
       <c r="D9">
-        <v>-0.03140548361448672</v>
+        <v>0.2489555163855133</v>
       </c>
       <c r="E9">
-        <v>0.3703300348802827</v>
+        <v>0.1983550348802827</v>
       </c>
       <c r="F9">
-        <v>0.183893542847739</v>
+        <v>0.489756542847739</v>
       </c>
       <c r="G9">
-        <v>0.4556555084590223</v>
+        <v>-0.1566744915409777</v>
       </c>
       <c r="H9">
-        <v>-0.1363049313708975</v>
-      </c>
-      <c r="I9">
-        <v>0.5542245613519331</v>
+        <v>0.5520660686291026</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -760,25 +751,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.9019617852456914</v>
+        <v>0.4012987852456914</v>
       </c>
       <c r="C10">
-        <v>0.08568329079670847</v>
+        <v>0.3660442907967085</v>
       </c>
       <c r="D10">
-        <v>0.2078658934307159</v>
+        <v>0.03589089343071589</v>
       </c>
       <c r="E10">
-        <v>0.2128524933129406</v>
+        <v>0.5187154933129405</v>
       </c>
       <c r="F10">
-        <v>0.4913983809139259</v>
+        <v>-0.1209316190860741</v>
       </c>
       <c r="G10">
-        <v>-0.1676325777545246</v>
-      </c>
-      <c r="H10">
-        <v>0.5509995116504074</v>
+        <v>0.5207384222454754</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +774,19 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.3325084682008229</v>
+        <v>0.6128694682008229</v>
       </c>
       <c r="C11">
-        <v>0.2255217609686054</v>
+        <v>0.05354676096860539</v>
       </c>
       <c r="D11">
-        <v>0.1182302542019461</v>
+        <v>0.4240932542019461</v>
       </c>
       <c r="E11">
-        <v>0.5236157691624059</v>
+        <v>-0.088714230837594</v>
       </c>
       <c r="F11">
-        <v>-0.1552444519268073</v>
-      </c>
-      <c r="G11">
-        <v>0.5301357081011285</v>
+        <v>0.5331265480731927</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -809,19 +794,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.4651981203848173</v>
+        <v>0.2932231203848173</v>
       </c>
       <c r="C12">
-        <v>0.2032544976711596</v>
+        <v>0.5091174976711597</v>
       </c>
       <c r="D12">
-        <v>0.4071311908043919</v>
+        <v>-0.2051988091956081</v>
       </c>
       <c r="E12">
-        <v>-0.1401391802749548</v>
-      </c>
-      <c r="F12">
-        <v>0.5533747437271186</v>
+        <v>0.5482318197250452</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -829,16 +811,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.3681145747052469</v>
+        <v>0.6739775747052469</v>
       </c>
       <c r="C13">
-        <v>0.4206684630523081</v>
+        <v>-0.1916615369476919</v>
       </c>
       <c r="D13">
-        <v>-0.2031120992649178</v>
-      </c>
-      <c r="E13">
-        <v>0.5634129094086165</v>
+        <v>0.4852589007350822</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -846,13 +825,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.6745175049177161</v>
+        <v>0.06218750491771613</v>
       </c>
       <c r="C14">
-        <v>-0.1037940490828814</v>
-      </c>
-      <c r="D14">
-        <v>0.4518363671933744</v>
+        <v>0.5845769509171186</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -860,18 +836,12 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.0597343578434324</v>
-      </c>
-      <c r="C15">
-        <v>0.4732568720679752</v>
+        <v>0.6286366421565677</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B16">
-        <v>0.7095000033804217</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_T55_since_2022.xlsx
+++ b/0_1_Output_Data/5_naive_qoq_error_series_matched_to_ifoCAST_since_2022/AR2_50_9_matched_errors_T55_since_2022.xlsx
@@ -489,34 +489,34 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.08873584232078371</v>
+        <v>0.6713308423207838</v>
       </c>
       <c r="C2">
-        <v>0.5038494195916882</v>
+        <v>0.4081742755916882</v>
       </c>
       <c r="D2">
-        <v>-0.08040038373236996</v>
+        <v>0.18001876026763</v>
       </c>
       <c r="E2">
-        <v>0.7915874115568508</v>
+        <v>-0.04386758844314925</v>
       </c>
       <c r="F2">
-        <v>0.7713569177313746</v>
+        <v>0.8714298707313746</v>
       </c>
       <c r="G2">
-        <v>0.3749198787210216</v>
+        <v>0.7287129257210216</v>
       </c>
       <c r="H2">
-        <v>0.5168873173527261</v>
+        <v>0.3687093173527261</v>
       </c>
       <c r="I2">
-        <v>0.6892627280777406</v>
+        <v>0.5318167280777406</v>
       </c>
       <c r="J2">
-        <v>0.1844308218533179</v>
+        <v>0.6850938218533179</v>
       </c>
       <c r="K2">
-        <v>0.4621062544735015</v>
+        <v>0.1817452544735015</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -524,34 +524,34 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0.5262773992246967</v>
+        <v>0.4306022552246968</v>
       </c>
       <c r="C3">
-        <v>-0.07779684416992128</v>
+        <v>0.1826222998300787</v>
       </c>
       <c r="D3">
-        <v>0.7695197259028355</v>
+        <v>-0.06593527409716449</v>
       </c>
       <c r="E3">
-        <v>0.7653749374270196</v>
+        <v>0.8654478904270196</v>
       </c>
       <c r="F3">
-        <v>0.3695766285386105</v>
+        <v>0.7233696755386105</v>
       </c>
       <c r="G3">
-        <v>0.5065187839823598</v>
+        <v>0.3583407839823598</v>
       </c>
       <c r="H3">
-        <v>0.6807854059541167</v>
+        <v>0.5233394059541168</v>
       </c>
       <c r="I3">
-        <v>0.1766585135465071</v>
+        <v>0.6773215135465072</v>
       </c>
       <c r="J3">
-        <v>0.4534822809405329</v>
+        <v>0.1731212809405329</v>
       </c>
       <c r="K3">
-        <v>0.2839429537672726</v>
+        <v>0.4559179537672726</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -559,34 +559,34 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.05637227271270118</v>
+        <v>0.2040468712872988</v>
       </c>
       <c r="C4">
-        <v>0.8896975747020479</v>
+        <v>0.05424257470204791</v>
       </c>
       <c r="D4">
-        <v>0.6761805930132365</v>
+        <v>0.7762535460132365</v>
       </c>
       <c r="E4">
-        <v>0.3398496246900327</v>
+        <v>0.6936426716900327</v>
       </c>
       <c r="F4">
-        <v>0.51514490401227</v>
+        <v>0.3669669040122699</v>
       </c>
       <c r="G4">
-        <v>0.6548452325286815</v>
+        <v>0.4973992325286816</v>
       </c>
       <c r="H4">
-        <v>0.1538799505182796</v>
+        <v>0.6545429505182796</v>
       </c>
       <c r="I4">
-        <v>0.4398642457919151</v>
+        <v>0.1595032457919151</v>
       </c>
       <c r="J4">
-        <v>0.2654221565820968</v>
+        <v>0.4373971565820968</v>
       </c>
       <c r="K4">
-        <v>0.5706702220727796</v>
+        <v>0.2648072220727796</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -594,34 +594,34 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>0.8473769423816584</v>
+        <v>0.01192194238165845</v>
       </c>
       <c r="C5">
-        <v>0.6469761191575033</v>
+        <v>0.7470490721575034</v>
       </c>
       <c r="D5">
-        <v>0.3368290248851115</v>
+        <v>0.6906220718851115</v>
       </c>
       <c r="E5">
-        <v>0.4962836204007895</v>
+        <v>0.3481056204007895</v>
       </c>
       <c r="F5">
-        <v>0.6345141014634773</v>
+        <v>0.4770681014634773</v>
       </c>
       <c r="G5">
-        <v>0.1393497950840318</v>
+        <v>0.6400127950840317</v>
       </c>
       <c r="H5">
-        <v>0.4232232002996471</v>
+        <v>0.1428622002996471</v>
       </c>
       <c r="I5">
-        <v>0.2478383111533466</v>
+        <v>0.4198133111533466</v>
       </c>
       <c r="J5">
-        <v>0.5541963385427369</v>
+        <v>0.2483333385427368</v>
       </c>
       <c r="K5">
-        <v>-0.05728305666909728</v>
+        <v>0.5550469433309027</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -629,34 +629,34 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0.9871738597754134</v>
+        <v>1.087246812775413</v>
       </c>
       <c r="C6">
-        <v>0.4122000866690486</v>
+        <v>0.7659931336690486</v>
       </c>
       <c r="D6">
-        <v>0.3051903340877904</v>
+        <v>0.1570123340877904</v>
       </c>
       <c r="E6">
-        <v>0.6592080140502106</v>
+        <v>0.5017620140502106</v>
       </c>
       <c r="F6">
-        <v>0.1487291986403278</v>
+        <v>0.6493921986403277</v>
       </c>
       <c r="G6">
-        <v>0.3684124016882561</v>
+        <v>0.08805140168825606</v>
       </c>
       <c r="H6">
-        <v>0.2289442202646768</v>
+        <v>0.4009192202646768</v>
       </c>
       <c r="I6">
-        <v>0.5393323377276911</v>
+        <v>0.2334693377276911</v>
       </c>
       <c r="J6">
-        <v>-0.085994767298468</v>
+        <v>0.526335232701532</v>
       </c>
       <c r="K6">
-        <v>0.6071338394308724</v>
+        <v>-0.08123716056912761</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -664,31 +664,34 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>0.8628949586592991</v>
+        <v>1.216688005659299</v>
       </c>
       <c r="C7">
-        <v>0.3523010363001488</v>
+        <v>0.2041230363001488</v>
       </c>
       <c r="D7">
-        <v>0.4189247832594023</v>
+        <v>0.2614787832594023</v>
       </c>
       <c r="E7">
-        <v>0.1846742797061906</v>
+        <v>0.6853372797061905</v>
       </c>
       <c r="F7">
-        <v>0.3663616442486632</v>
+        <v>0.08600064424866319</v>
       </c>
       <c r="G7">
-        <v>0.1523759808286466</v>
+        <v>0.3243509808286466</v>
       </c>
       <c r="H7">
-        <v>0.5119329433524077</v>
+        <v>0.2060699433524077</v>
       </c>
       <c r="I7">
-        <v>-0.1122838174961934</v>
+        <v>0.5000461825038066</v>
       </c>
       <c r="J7">
-        <v>0.5637365487175399</v>
+        <v>-0.1246344512824602</v>
+      </c>
+      <c r="K7">
+        <v>0.5737435035592049</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -696,28 +699,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0.6646266232236873</v>
+        <v>0.5164486232236872</v>
       </c>
       <c r="C8">
-        <v>0.5522135229949265</v>
+        <v>0.3947675229949266</v>
       </c>
       <c r="D8">
-        <v>0.005595857889999001</v>
+        <v>0.506258857889999</v>
       </c>
       <c r="E8">
-        <v>0.3945558830192304</v>
+        <v>0.1141948830192304</v>
       </c>
       <c r="F8">
-        <v>0.1884012920210401</v>
+        <v>0.3603762920210401</v>
       </c>
       <c r="G8">
-        <v>0.4743913731481941</v>
+        <v>0.1685283731481941</v>
       </c>
       <c r="H8">
-        <v>-0.1178261565835546</v>
+        <v>0.4945038434164454</v>
       </c>
       <c r="I8">
-        <v>0.5679118776562884</v>
+        <v>-0.1204591223437116</v>
+      </c>
+      <c r="J8">
+        <v>0.562558789819434</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -725,25 +731,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.7878040141027678</v>
+        <v>0.6303580141027678</v>
       </c>
       <c r="C9">
-        <v>0.09027459876430857</v>
+        <v>0.5909375987643086</v>
       </c>
       <c r="D9">
-        <v>0.2489555163855133</v>
+        <v>-0.03140548361448672</v>
       </c>
       <c r="E9">
-        <v>0.1983550348802827</v>
+        <v>0.3703300348802827</v>
       </c>
       <c r="F9">
-        <v>0.489756542847739</v>
+        <v>0.183893542847739</v>
       </c>
       <c r="G9">
-        <v>-0.1566744915409777</v>
+        <v>0.4556555084590223</v>
       </c>
       <c r="H9">
-        <v>0.5520660686291026</v>
+        <v>-0.1363049313708975</v>
+      </c>
+      <c r="I9">
+        <v>0.5542245613519331</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +760,25 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0.4012987852456914</v>
+        <v>0.9019617852456914</v>
       </c>
       <c r="C10">
-        <v>0.3660442907967085</v>
+        <v>0.08568329079670847</v>
       </c>
       <c r="D10">
-        <v>0.03589089343071589</v>
+        <v>0.2078658934307159</v>
       </c>
       <c r="E10">
-        <v>0.5187154933129405</v>
+        <v>0.2128524933129406</v>
       </c>
       <c r="F10">
-        <v>-0.1209316190860741</v>
+        <v>0.4913983809139259</v>
       </c>
       <c r="G10">
-        <v>0.5207384222454754</v>
+        <v>-0.1676325777545246</v>
+      </c>
+      <c r="H10">
+        <v>0.5509995116504074</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -774,19 +786,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.6128694682008229</v>
+        <v>0.3325084682008229</v>
       </c>
       <c r="C11">
-        <v>0.05354676096860539</v>
+        <v>0.2255217609686054</v>
       </c>
       <c r="D11">
-        <v>0.4240932542019461</v>
+        <v>0.1182302542019461</v>
       </c>
       <c r="E11">
-        <v>-0.088714230837594</v>
+        <v>0.5236157691624059</v>
       </c>
       <c r="F11">
-        <v>0.5331265480731927</v>
+        <v>-0.1552444519268073</v>
+      </c>
+      <c r="G11">
+        <v>0.5301357081011285</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -794,16 +809,19 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.2932231203848173</v>
+        <v>0.4651981203848173</v>
       </c>
       <c r="C12">
-        <v>0.5091174976711597</v>
+        <v>0.2032544976711596</v>
       </c>
       <c r="D12">
-        <v>-0.2051988091956081</v>
+        <v>0.4071311908043919</v>
       </c>
       <c r="E12">
-        <v>0.5482318197250452</v>
+        <v>-0.1401391802749548</v>
+      </c>
+      <c r="F12">
+        <v>0.5533747437271186</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -811,13 +829,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>0.6739775747052469</v>
+        <v>0.3681145747052469</v>
       </c>
       <c r="C13">
-        <v>-0.1916615369476919</v>
+        <v>0.4206684630523081</v>
       </c>
       <c r="D13">
-        <v>0.4852589007350822</v>
+        <v>-0.2031120992649178</v>
+      </c>
+      <c r="E13">
+        <v>0.5634129094086165</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -825,10 +846,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0.06218750491771613</v>
+        <v>0.6745175049177161</v>
       </c>
       <c r="C14">
-        <v>0.5845769509171186</v>
+        <v>-0.1037940490828814</v>
+      </c>
+      <c r="D14">
+        <v>0.4518363671933744</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -836,12 +860,18 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0.6286366421565677</v>
+        <v>-0.0597343578434324</v>
+      </c>
+      <c r="C15">
+        <v>0.4732568720679752</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B16">
+        <v>0.7095000033804217</v>
       </c>
     </row>
   </sheetData>
